--- a/src/ConfusionMatrix/SightCorp.xlsx
+++ b/src/ConfusionMatrix/SightCorp.xlsx
@@ -203,14 +203,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +216,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -516,667 +516,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>66</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>7</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
         <v>10</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>6</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>66</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>59</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>108</v>
       </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
         <v>106</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>3</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>68</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>7</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>4</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>6</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
         <v>71</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>63</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>5</v>
       </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8"/>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>112</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
         <v>104</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>4</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>12</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <v>58</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>17</v>
       </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8">
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
-        <v>2</v>
-      </c>
-      <c r="J29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>2</v>
+      </c>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
         <v>5</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6">
         <v>69</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>13</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
         <v>53</v>
       </c>
-      <c r="H31" s="8">
-        <v>2</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
+      <c r="H31" s="6">
+        <v>2</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>5</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
         <v>106</v>
       </c>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="6">
         <v>39</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>5</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
         <v>65</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>26</v>
       </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A26:A34"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A26:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
